--- a/data/turm/MCT-1B.xlsx
+++ b/data/turm/MCT-1B.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,38 +881,6 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/turm/MCT-1B.xlsx
+++ b/data/turm/MCT-1B.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/turm/MCT-1B.xlsx
+++ b/data/turm/MCT-1B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,66 +665,66 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Almoço</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Almoço</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -788,98 +788,174 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Intervalo</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Intervalo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/turm/MCT-1B.xlsx
+++ b/data/turm/MCT-1B.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
